--- a/Code/Results/Cases/Case_1_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.535338189739416</v>
+        <v>5.689121947306627</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.488877779930121</v>
+        <v>4.668847530398286</v>
       </c>
       <c r="E2">
-        <v>12.35867995594411</v>
+        <v>11.7275782455013</v>
       </c>
       <c r="F2">
-        <v>23.47950817899044</v>
+        <v>25.86160637963263</v>
       </c>
       <c r="G2">
-        <v>32.84484274552495</v>
+        <v>31.99044886572986</v>
       </c>
       <c r="H2">
-        <v>10.22359020210791</v>
+        <v>14.67768628747004</v>
       </c>
       <c r="I2">
-        <v>12.82275579531447</v>
+        <v>19.85579666574063</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.00742893879891</v>
+        <v>10.7472741761131</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.15251953442915</v>
+        <v>14.36069988942034</v>
       </c>
       <c r="N2">
-        <v>11.84655457627722</v>
+        <v>18.35393530346338</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.173050757127821</v>
+        <v>5.593870226478985</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.478611947293323</v>
+        <v>4.662562700883706</v>
       </c>
       <c r="E3">
-        <v>11.66779158920469</v>
+        <v>11.58956654610724</v>
       </c>
       <c r="F3">
-        <v>22.49249026372652</v>
+        <v>25.73412087334159</v>
       </c>
       <c r="G3">
-        <v>31.24857237415566</v>
+        <v>31.70567781638372</v>
       </c>
       <c r="H3">
-        <v>10.05913317763829</v>
+        <v>14.69607122223506</v>
       </c>
       <c r="I3">
-        <v>13.05163364964256</v>
+        <v>19.94310023892019</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.93058108385315</v>
+        <v>10.35765294126347</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.00987137244943</v>
+        <v>14.11901570511218</v>
       </c>
       <c r="N3">
-        <v>12.07756190190346</v>
+        <v>18.41906948097751</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.938639772400785</v>
+        <v>5.535534133082446</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.472226781963481</v>
+        <v>4.658672058454461</v>
       </c>
       <c r="E4">
-        <v>11.23572383684927</v>
+        <v>11.50803411085259</v>
       </c>
       <c r="F4">
-        <v>21.88978858575073</v>
+        <v>25.66391029850729</v>
       </c>
       <c r="G4">
-        <v>30.26704015807341</v>
+        <v>31.54193380342438</v>
       </c>
       <c r="H4">
-        <v>9.9663109833409</v>
+        <v>14.7106387114682</v>
       </c>
       <c r="I4">
-        <v>13.19922596886734</v>
+        <v>19.99991304736397</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.23471186174368</v>
+        <v>10.11316290774348</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.27189898720085</v>
+        <v>13.9724590500224</v>
       </c>
       <c r="N4">
-        <v>12.22198042290981</v>
+        <v>18.46085650972473</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.840139602641798</v>
+        <v>5.511830591205262</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.4696069678679</v>
+        <v>4.657078994076895</v>
       </c>
       <c r="E5">
-        <v>11.05785496371528</v>
+        <v>11.4756536512131</v>
       </c>
       <c r="F5">
-        <v>21.64533189404303</v>
+        <v>25.63734914224783</v>
       </c>
       <c r="G5">
-        <v>29.86721454333461</v>
+        <v>31.47807028646255</v>
       </c>
       <c r="H5">
-        <v>9.930497476935761</v>
+        <v>14.71739780196716</v>
       </c>
       <c r="I5">
-        <v>13.26110202635219</v>
+        <v>20.02387198727148</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.94239843904203</v>
+        <v>10.01237354392683</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.96194645255686</v>
+        <v>13.9132798991922</v>
       </c>
       <c r="N5">
-        <v>12.28151629151666</v>
+        <v>18.47833773062245</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.823605136302112</v>
+        <v>5.507899722628264</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.469170957564058</v>
+        <v>4.656814019429432</v>
       </c>
       <c r="E6">
-        <v>11.02821744771228</v>
+        <v>11.47032899047472</v>
       </c>
       <c r="F6">
-        <v>21.6048191795967</v>
+        <v>25.63306308450017</v>
       </c>
       <c r="G6">
-        <v>29.80084972779582</v>
+        <v>31.46764067603923</v>
       </c>
       <c r="H6">
-        <v>9.924670992769601</v>
+        <v>14.71856977530675</v>
       </c>
       <c r="I6">
-        <v>13.27147985380559</v>
+        <v>20.02789912471066</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.89333182231336</v>
+        <v>9.995572755016369</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.90992009874673</v>
+        <v>13.90348847067883</v>
       </c>
       <c r="N6">
-        <v>12.29144450105475</v>
+        <v>18.4812678568047</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.937323363436511</v>
+        <v>5.535214138075757</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.472191518582074</v>
+        <v>4.658650604095692</v>
       </c>
       <c r="E7">
-        <v>11.2333320467356</v>
+        <v>11.50759394774716</v>
       </c>
       <c r="F7">
-        <v>21.88648666898465</v>
+        <v>25.66354375783671</v>
       </c>
       <c r="G7">
-        <v>30.26164660199013</v>
+        <v>31.54106083535282</v>
       </c>
       <c r="H7">
-        <v>9.965819896370911</v>
+        <v>14.71072653842593</v>
       </c>
       <c r="I7">
-        <v>13.20005349686486</v>
+        <v>20.00023289669209</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.23080502755945</v>
+        <v>10.111808084967</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.26775629141263</v>
+        <v>13.97165862969677</v>
       </c>
       <c r="N7">
-        <v>12.22278052871834</v>
+        <v>18.461090432843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.412921861856731</v>
+        <v>5.656267017338265</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.485356761587843</v>
+        <v>4.666687334747543</v>
       </c>
       <c r="E8">
-        <v>12.12218683824418</v>
+        <v>11.67934965468036</v>
       </c>
       <c r="F8">
-        <v>23.13866902543063</v>
+        <v>25.81598948319034</v>
       </c>
       <c r="G8">
-        <v>32.29502579165723</v>
+        <v>31.88999910985631</v>
       </c>
       <c r="H8">
-        <v>10.16517112334085</v>
+        <v>14.68334382249142</v>
       </c>
       <c r="I8">
-        <v>12.90017898866746</v>
+        <v>19.88523344231325</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.64331208257063</v>
+        <v>10.61411908187651</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.76603700022489</v>
+        <v>14.27703464819792</v>
       </c>
       <c r="N8">
-        <v>11.92569273201294</v>
+        <v>18.37602202537952</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.249609010718327</v>
+        <v>5.893473519498703</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.51040675935129</v>
+        <v>4.682179388556872</v>
       </c>
       <c r="E9">
-        <v>13.7972087127901</v>
+        <v>12.03983988054727</v>
       </c>
       <c r="F9">
-        <v>25.6089324930349</v>
+        <v>26.17780928583074</v>
       </c>
       <c r="G9">
-        <v>36.25298495995924</v>
+        <v>32.65896336470323</v>
       </c>
       <c r="H9">
-        <v>10.62233004353733</v>
+        <v>14.65573563846343</v>
       </c>
       <c r="I9">
-        <v>12.37046499967538</v>
+        <v>19.68514835786852</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.13985952647271</v>
+        <v>11.55092383506484</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.41946482148983</v>
+        <v>14.88687962474501</v>
       </c>
       <c r="N9">
-        <v>11.36183810585828</v>
+        <v>18.22337298136812</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.804941005632308</v>
+        <v>6.065869820460742</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.52819542387294</v>
+        <v>4.693377298103464</v>
       </c>
       <c r="E10">
-        <v>15.08397536759349</v>
+        <v>12.31665214477325</v>
       </c>
       <c r="F10">
-        <v>27.42041217157768</v>
+        <v>26.48023800982464</v>
       </c>
       <c r="G10">
-        <v>39.12484939928261</v>
+        <v>33.27055834705266</v>
       </c>
       <c r="H10">
-        <v>11.00051133936029</v>
+        <v>14.65143865244714</v>
       </c>
       <c r="I10">
-        <v>12.0206311551052</v>
+        <v>19.55361112977743</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.81100038131478</v>
+        <v>12.20217302347636</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.2017457733095</v>
+        <v>15.33689966377698</v>
       </c>
       <c r="N10">
-        <v>10.9563888502305</v>
+        <v>18.11976330687041</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.044605081441162</v>
+        <v>6.1435329468595</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.536126071604</v>
+        <v>4.698427224129411</v>
       </c>
       <c r="E11">
-        <v>15.69073208585883</v>
+        <v>12.44463334450542</v>
       </c>
       <c r="F11">
-        <v>28.24211670016949</v>
+        <v>26.62533699991516</v>
       </c>
       <c r="G11">
-        <v>40.42149712712265</v>
+        <v>33.55775613476016</v>
       </c>
       <c r="H11">
-        <v>11.18213890697046</v>
+        <v>14.65296657295528</v>
       </c>
       <c r="I11">
-        <v>11.87105669902087</v>
+        <v>19.49712251815085</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.53688537270877</v>
+        <v>12.48907936879153</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.97786787507884</v>
+        <v>15.54108128152442</v>
       </c>
       <c r="N11">
-        <v>10.77322106564212</v>
+        <v>18.0744625833973</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.133494611065052</v>
+        <v>6.172804422225886</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.539103892050824</v>
+        <v>4.7003327872747</v>
       </c>
       <c r="E12">
-        <v>15.91744698423067</v>
+        <v>12.49334635304382</v>
       </c>
       <c r="F12">
-        <v>28.55286648086941</v>
+        <v>26.68132371518984</v>
       </c>
       <c r="G12">
-        <v>40.91104419606833</v>
+        <v>33.66769986173628</v>
       </c>
       <c r="H12">
-        <v>11.25232935028177</v>
+        <v>14.65404629689216</v>
       </c>
       <c r="I12">
-        <v>11.8158960650852</v>
+        <v>19.47621287462731</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.80692508965087</v>
+        <v>12.59628593794214</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.26693242442735</v>
+        <v>15.61824507872954</v>
       </c>
       <c r="N12">
-        <v>10.70398609062347</v>
+        <v>18.05757025728943</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.114433658157374</v>
+        <v>6.166506856578892</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.538463723362792</v>
+        <v>4.69992269597304</v>
       </c>
       <c r="E13">
-        <v>15.86875311366625</v>
+        <v>12.48284478713084</v>
       </c>
       <c r="F13">
-        <v>28.48595990551559</v>
+        <v>26.66922035613067</v>
       </c>
       <c r="G13">
-        <v>40.80567666537446</v>
+        <v>33.64397033442334</v>
       </c>
       <c r="H13">
-        <v>11.2371492181694</v>
+        <v>14.65379146923776</v>
       </c>
       <c r="I13">
-        <v>11.82770824425113</v>
+        <v>19.48069473292438</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.7489806256416</v>
+        <v>12.57326244133059</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.20488980232356</v>
+        <v>15.60163459861576</v>
       </c>
       <c r="N13">
-        <v>10.718892397466</v>
+        <v>18.06119668736984</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.051955477524562</v>
+        <v>6.145944049976324</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.536371577857666</v>
+        <v>4.698584133193432</v>
       </c>
       <c r="E14">
-        <v>15.70944432454267</v>
+        <v>12.44863626288099</v>
       </c>
       <c r="F14">
-        <v>28.26769076799628</v>
+        <v>26.62992244222727</v>
       </c>
       <c r="G14">
-        <v>40.46180185684914</v>
+        <v>33.56677805743289</v>
       </c>
       <c r="H14">
-        <v>11.18788501634534</v>
+        <v>14.65304535831954</v>
       </c>
       <c r="I14">
-        <v>11.86648828668267</v>
+        <v>19.49539262238724</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.55919803417742</v>
+        <v>12.49792864698054</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.00174542199205</v>
+        <v>15.54743314500683</v>
       </c>
       <c r="N14">
-        <v>10.76752286406034</v>
+        <v>18.07306759684598</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.013442755461403</v>
+        <v>6.133329961491093</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.53508671923795</v>
+        <v>4.697763336065113</v>
       </c>
       <c r="E15">
-        <v>15.61147029764494</v>
+        <v>12.42771364062008</v>
       </c>
       <c r="F15">
-        <v>28.13393965595622</v>
+        <v>26.60598563571313</v>
       </c>
       <c r="G15">
-        <v>40.25097750441461</v>
+        <v>33.51964719305111</v>
       </c>
       <c r="H15">
-        <v>11.15789419539233</v>
+        <v>14.65265361037246</v>
       </c>
       <c r="I15">
-        <v>11.89043827867099</v>
+        <v>19.50445818961295</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.44232393033797</v>
+        <v>12.45159458029741</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.87668841258116</v>
+        <v>15.5142106844249</v>
       </c>
       <c r="N15">
-        <v>10.7973251707173</v>
+        <v>18.08037296187536</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.789017325932305</v>
+        <v>6.060776579474256</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.527673700786366</v>
+        <v>4.693046352834157</v>
       </c>
       <c r="E16">
-        <v>15.04388739000266</v>
+        <v>12.30832569449133</v>
       </c>
       <c r="F16">
-        <v>27.36665708224745</v>
+        <v>26.47090338441557</v>
       </c>
       <c r="G16">
-        <v>39.03990662487496</v>
+        <v>33.25196123212417</v>
       </c>
       <c r="H16">
-        <v>10.9888372768685</v>
+        <v>14.65140891513617</v>
       </c>
       <c r="I16">
-        <v>12.03060727077499</v>
+        <v>19.55737015926431</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.7628795197173</v>
+        <v>12.18322655162271</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.15033934999302</v>
+        <v>15.32353837635912</v>
       </c>
       <c r="N16">
-        <v>10.96838020439798</v>
+        <v>18.12276056207021</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.648017500531972</v>
+        <v>6.016051895101667</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.523083105643637</v>
+        <v>4.690141067245117</v>
       </c>
       <c r="E17">
-        <v>14.69010327349292</v>
+        <v>12.23557893628589</v>
       </c>
       <c r="F17">
-        <v>26.89528370703272</v>
+        <v>26.38993320661647</v>
       </c>
       <c r="G17">
-        <v>38.29437991396711</v>
+        <v>33.08997194590903</v>
       </c>
       <c r="H17">
-        <v>10.88760519033473</v>
+        <v>14.65153766735737</v>
       </c>
       <c r="I17">
-        <v>12.11911611878485</v>
+        <v>19.59068742879722</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.33733696889194</v>
+        <v>12.01612585361525</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.69597334012873</v>
+        <v>15.20637332863823</v>
       </c>
       <c r="N17">
-        <v>11.07360439139681</v>
+        <v>18.14923220211351</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.565698255193083</v>
+        <v>5.990257448752109</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.520427628306745</v>
+        <v>4.688465900341565</v>
       </c>
       <c r="E18">
-        <v>14.48451712689111</v>
+        <v>12.19393341905016</v>
       </c>
       <c r="F18">
-        <v>26.62394255571856</v>
+        <v>26.34407197403657</v>
       </c>
       <c r="G18">
-        <v>37.86465038568858</v>
+        <v>32.9976515989826</v>
       </c>
       <c r="H18">
-        <v>10.83027982284941</v>
+        <v>14.65193952598196</v>
       </c>
       <c r="I18">
-        <v>12.17091741955842</v>
+        <v>19.61016580618295</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.08933856514903</v>
+        <v>11.91913869255951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.43136334859308</v>
+        <v>15.13893726661283</v>
       </c>
       <c r="N18">
-        <v>11.1342500436226</v>
+        <v>18.16463049000443</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.53761699297955</v>
+        <v>5.981512760470913</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.519526006359222</v>
+        <v>4.687898021613441</v>
       </c>
       <c r="E19">
-        <v>14.41454468601331</v>
+        <v>12.17986813292297</v>
       </c>
       <c r="F19">
-        <v>26.53203649230749</v>
+        <v>26.32866741387909</v>
       </c>
       <c r="G19">
-        <v>37.71899617017672</v>
+        <v>32.96654288559467</v>
       </c>
       <c r="H19">
-        <v>10.81102417834833</v>
+        <v>14.65213187337684</v>
       </c>
       <c r="I19">
-        <v>12.1886069534107</v>
+        <v>19.61681498437709</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.00481171299997</v>
+        <v>11.88615324468033</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.34120499371602</v>
+        <v>15.11609914554361</v>
       </c>
       <c r="N19">
-        <v>11.15480646758683</v>
+        <v>18.16987375391352</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.66315345433137</v>
+        <v>6.020820368324869</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.523573360054209</v>
+        <v>4.690450769501004</v>
       </c>
       <c r="E20">
-        <v>14.7279804550836</v>
+        <v>12.24330295470014</v>
       </c>
       <c r="F20">
-        <v>26.94548564460303</v>
+        <v>26.39847935693401</v>
       </c>
       <c r="G20">
-        <v>38.37383866184857</v>
+        <v>33.10712858413204</v>
       </c>
       <c r="H20">
-        <v>10.89828807786236</v>
+        <v>14.65149003147336</v>
       </c>
       <c r="I20">
-        <v>12.10960103555503</v>
+        <v>19.58710813114278</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.38297110358179</v>
+        <v>12.03400531380237</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.74467886840061</v>
+        <v>15.21885106903227</v>
       </c>
       <c r="N20">
-        <v>11.06239071007697</v>
+        <v>18.14639640738332</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.070357481237178</v>
+        <v>6.15198780644067</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.536986795173113</v>
+        <v>4.698977487454877</v>
       </c>
       <c r="E21">
-        <v>15.75631875781438</v>
+        <v>12.45867774011675</v>
       </c>
       <c r="F21">
-        <v>28.33181321852688</v>
+        <v>26.64143728014407</v>
       </c>
       <c r="G21">
-        <v>40.56284603362431</v>
+        <v>33.58941988688441</v>
       </c>
       <c r="H21">
-        <v>11.20231650417916</v>
+        <v>14.65325090757015</v>
       </c>
       <c r="I21">
-        <v>11.85505657351124</v>
+        <v>19.49106243250752</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.61507220847104</v>
+        <v>12.52009574376236</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.06154386242567</v>
+        <v>15.56335825132186</v>
       </c>
       <c r="N21">
-        <v>10.75323595273802</v>
+        <v>18.06957372098756</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.325613173435585</v>
+        <v>6.236897498319681</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.545604733629035</v>
+        <v>4.704510755520104</v>
       </c>
       <c r="E22">
-        <v>16.41069404301571</v>
+        <v>12.60086934951589</v>
       </c>
       <c r="F22">
-        <v>29.23546019019543</v>
+        <v>26.80627083633627</v>
       </c>
       <c r="G22">
-        <v>41.98498198087399</v>
+        <v>33.91150145383693</v>
       </c>
       <c r="H22">
-        <v>11.40926539009951</v>
+        <v>14.65732264757355</v>
       </c>
       <c r="I22">
-        <v>11.69738343350084</v>
+        <v>19.43109677292906</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.39218209252662</v>
+        <v>12.88588548093828</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.89408166828175</v>
+        <v>15.78757404981585</v>
       </c>
       <c r="N22">
-        <v>10.55189407984925</v>
+        <v>18.02089261053564</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.190373515035262</v>
+        <v>6.191663293049769</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.541019399594611</v>
+        <v>4.701561285428933</v>
       </c>
       <c r="E23">
-        <v>16.06301008198335</v>
+        <v>12.5248633402296</v>
       </c>
       <c r="F23">
-        <v>28.75339729544842</v>
+        <v>26.71775689148409</v>
       </c>
       <c r="G23">
-        <v>41.22673677048424</v>
+        <v>33.73900587015875</v>
       </c>
       <c r="H23">
-        <v>11.29804618380945</v>
+        <v>14.65488219744074</v>
       </c>
       <c r="I23">
-        <v>11.78070312210005</v>
+        <v>19.46284487454895</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.97996258615161</v>
+        <v>12.68003620617124</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.45226043924811</v>
+        <v>15.66801690412673</v>
       </c>
       <c r="N23">
-        <v>10.65930912899109</v>
+        <v>18.04673535961127</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.656314403317081</v>
+        <v>6.018664793674419</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.523351766590224</v>
+        <v>4.690310768249845</v>
       </c>
       <c r="E24">
-        <v>14.71086301605678</v>
+        <v>12.2398103693585</v>
       </c>
       <c r="F24">
-        <v>26.92279040857711</v>
+        <v>26.39461349113525</v>
       </c>
       <c r="G24">
-        <v>38.33791883336628</v>
+        <v>33.09936953866385</v>
       </c>
       <c r="H24">
-        <v>10.89345562356155</v>
+        <v>14.65151054642266</v>
       </c>
       <c r="I24">
-        <v>12.11389995803571</v>
+        <v>19.5887253228345</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.36235034787598</v>
+        <v>12.02592486424899</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.72266966566024</v>
+        <v>15.21321011427832</v>
       </c>
       <c r="N24">
-        <v>11.06745994128868</v>
+        <v>18.14767791124329</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.033649584371669</v>
+        <v>5.829508202946831</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.503728001627319</v>
+        <v>4.678019217011641</v>
       </c>
       <c r="E25">
-        <v>13.35197741681497</v>
+        <v>11.94003405645526</v>
       </c>
       <c r="F25">
-        <v>24.94053846825294</v>
+        <v>26.07336272300815</v>
       </c>
       <c r="G25">
-        <v>35.18760578988986</v>
+        <v>32.44236694036397</v>
       </c>
       <c r="H25">
-        <v>10.49135895345676</v>
+        <v>14.66040166636359</v>
       </c>
       <c r="I25">
-        <v>12.50716620007597</v>
+        <v>19.73655832262305</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.49342559358625</v>
+        <v>11.30349980859693</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.73150825328617</v>
+        <v>14.72121757378609</v>
       </c>
       <c r="N25">
-        <v>11.5126272959377</v>
+        <v>18.26316164651983</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.689121947306627</v>
+        <v>6.535338189739346</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.668847530398286</v>
+        <v>3.488877779929991</v>
       </c>
       <c r="E2">
-        <v>11.7275782455013</v>
+        <v>12.35867995594411</v>
       </c>
       <c r="F2">
-        <v>25.86160637963263</v>
+        <v>23.47950817899044</v>
       </c>
       <c r="G2">
-        <v>31.99044886572986</v>
+        <v>32.84484274552497</v>
       </c>
       <c r="H2">
-        <v>14.67768628747004</v>
+        <v>10.22359020210782</v>
       </c>
       <c r="I2">
-        <v>19.85579666574063</v>
+        <v>12.82275579531447</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.7472741761131</v>
+        <v>17.00742893879892</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.36069988942034</v>
+        <v>17.15251953442916</v>
       </c>
       <c r="N2">
-        <v>18.35393530346338</v>
+        <v>11.84655457627719</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.593870226478985</v>
+        <v>6.173050757127826</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.662562700883706</v>
+        <v>3.478611947293327</v>
       </c>
       <c r="E3">
-        <v>11.58956654610724</v>
+        <v>11.66779158920468</v>
       </c>
       <c r="F3">
-        <v>25.73412087334159</v>
+        <v>22.49249026372651</v>
       </c>
       <c r="G3">
-        <v>31.70567781638372</v>
+        <v>31.24857237415572</v>
       </c>
       <c r="H3">
-        <v>14.69607122223506</v>
+        <v>10.05913317763824</v>
       </c>
       <c r="I3">
-        <v>19.94310023892019</v>
+        <v>13.05163364964253</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.35765294126347</v>
+        <v>15.93058108385313</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.11901570511218</v>
+        <v>16.00987137244945</v>
       </c>
       <c r="N3">
-        <v>18.41906948097751</v>
+        <v>12.07756190190343</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.535534133082446</v>
+        <v>5.938639772400784</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.658672058454461</v>
+        <v>3.472226781963544</v>
       </c>
       <c r="E4">
-        <v>11.50803411085259</v>
+        <v>11.23572383684926</v>
       </c>
       <c r="F4">
-        <v>25.66391029850729</v>
+        <v>21.88978858575074</v>
       </c>
       <c r="G4">
-        <v>31.54193380342438</v>
+        <v>30.26704015807339</v>
       </c>
       <c r="H4">
-        <v>14.7106387114682</v>
+        <v>9.96631098334093</v>
       </c>
       <c r="I4">
-        <v>19.99991304736397</v>
+        <v>13.19922596886735</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.11316290774348</v>
+        <v>15.23471186174373</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.9724590500224</v>
+        <v>15.27189898720086</v>
       </c>
       <c r="N4">
-        <v>18.46085650972473</v>
+        <v>12.22198042290981</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.511830591205262</v>
+        <v>5.840139602641753</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.657078994076895</v>
+        <v>3.469606967867963</v>
       </c>
       <c r="E5">
-        <v>11.4756536512131</v>
+        <v>11.05785496371528</v>
       </c>
       <c r="F5">
-        <v>25.63734914224783</v>
+        <v>21.64533189404303</v>
       </c>
       <c r="G5">
-        <v>31.47807028646255</v>
+        <v>29.86721454333462</v>
       </c>
       <c r="H5">
-        <v>14.71739780196716</v>
+        <v>9.930497476935731</v>
       </c>
       <c r="I5">
-        <v>20.02387198727148</v>
+        <v>13.26110202635216</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.01237354392683</v>
+        <v>14.94239843904203</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.9132798991922</v>
+        <v>14.96194645255686</v>
       </c>
       <c r="N5">
-        <v>18.47833773062245</v>
+        <v>12.28151629151662</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.507899722628264</v>
+        <v>5.823605136302077</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.656814019429432</v>
+        <v>3.469170957563932</v>
       </c>
       <c r="E6">
-        <v>11.47032899047472</v>
+        <v>11.02821744771232</v>
       </c>
       <c r="F6">
-        <v>25.63306308450017</v>
+        <v>21.60481917959656</v>
       </c>
       <c r="G6">
-        <v>31.46764067603923</v>
+        <v>29.8008497277956</v>
       </c>
       <c r="H6">
-        <v>14.71856977530675</v>
+        <v>9.924670992769521</v>
       </c>
       <c r="I6">
-        <v>20.02789912471066</v>
+        <v>13.27147985380545</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.995572755016369</v>
+        <v>14.89333182231338</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.90348847067883</v>
+        <v>14.90992009874671</v>
       </c>
       <c r="N6">
-        <v>18.4812678568047</v>
+        <v>12.29144450105468</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.535214138075757</v>
+        <v>5.937323363436597</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.658650604095692</v>
+        <v>3.472191518582076</v>
       </c>
       <c r="E7">
-        <v>11.50759394774716</v>
+        <v>11.23333204673566</v>
       </c>
       <c r="F7">
-        <v>25.66354375783671</v>
+        <v>21.88648666898463</v>
       </c>
       <c r="G7">
-        <v>31.54106083535282</v>
+        <v>30.26164660199009</v>
       </c>
       <c r="H7">
-        <v>14.71072653842593</v>
+        <v>9.965819896370911</v>
       </c>
       <c r="I7">
-        <v>20.00023289669209</v>
+        <v>13.20005349686486</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.111808084967</v>
+        <v>15.23080502755952</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.97165862969677</v>
+        <v>15.26775629141262</v>
       </c>
       <c r="N7">
-        <v>18.461090432843</v>
+        <v>12.22278052871838</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.656267017338265</v>
+        <v>6.412921861856759</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.666687334747543</v>
+        <v>3.485356761588035</v>
       </c>
       <c r="E8">
-        <v>11.67934965468036</v>
+        <v>12.12218683824419</v>
       </c>
       <c r="F8">
-        <v>25.81598948319034</v>
+        <v>23.13866902543067</v>
       </c>
       <c r="G8">
-        <v>31.88999910985631</v>
+        <v>32.2950257916573</v>
       </c>
       <c r="H8">
-        <v>14.68334382249142</v>
+        <v>10.16517112334085</v>
       </c>
       <c r="I8">
-        <v>19.88523344231325</v>
+        <v>12.90017898866749</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.61411908187651</v>
+        <v>16.64331208257062</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.27703464819792</v>
+        <v>16.76603700022488</v>
       </c>
       <c r="N8">
-        <v>18.37602202537952</v>
+        <v>11.92569273201298</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.893473519498703</v>
+        <v>7.24960901071829</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.682179388556872</v>
+        <v>3.51040675935123</v>
       </c>
       <c r="E9">
-        <v>12.03983988054727</v>
+        <v>13.7972087127901</v>
       </c>
       <c r="F9">
-        <v>26.17780928583074</v>
+        <v>25.60893249303492</v>
       </c>
       <c r="G9">
-        <v>32.65896336470323</v>
+        <v>36.25298495995924</v>
       </c>
       <c r="H9">
-        <v>14.65573563846343</v>
+        <v>10.6223300435374</v>
       </c>
       <c r="I9">
-        <v>19.68514835786852</v>
+        <v>12.37046499967544</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.55092383506484</v>
+        <v>19.13985952647268</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.88687962474501</v>
+        <v>19.41946482148982</v>
       </c>
       <c r="N9">
-        <v>18.22337298136812</v>
+        <v>11.36183810585832</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.065869820460742</v>
+        <v>7.804941005632375</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.693377298103464</v>
+        <v>3.528195423873002</v>
       </c>
       <c r="E10">
-        <v>12.31665214477325</v>
+        <v>15.08397536759348</v>
       </c>
       <c r="F10">
-        <v>26.48023800982464</v>
+        <v>27.42041217157768</v>
       </c>
       <c r="G10">
-        <v>33.27055834705266</v>
+        <v>39.12484939928266</v>
       </c>
       <c r="H10">
-        <v>14.65143865244714</v>
+        <v>11.00051133936024</v>
       </c>
       <c r="I10">
-        <v>19.55361112977743</v>
+        <v>12.02063115510512</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.20217302347636</v>
+        <v>20.81100038131482</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.33689966377698</v>
+        <v>21.20174577330952</v>
       </c>
       <c r="N10">
-        <v>18.11976330687041</v>
+        <v>10.95638885023047</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.1435329468595</v>
+        <v>8.044605081441123</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.698427224129411</v>
+        <v>3.536126071603935</v>
       </c>
       <c r="E11">
-        <v>12.44463334450542</v>
+        <v>15.69073208585883</v>
       </c>
       <c r="F11">
-        <v>26.62533699991516</v>
+        <v>28.24211670016947</v>
       </c>
       <c r="G11">
-        <v>33.55775613476016</v>
+        <v>40.42149712712267</v>
       </c>
       <c r="H11">
-        <v>14.65296657295528</v>
+        <v>11.18213890697044</v>
       </c>
       <c r="I11">
-        <v>19.49712251815085</v>
+        <v>11.8710566990209</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.48907936879153</v>
+        <v>21.53688537270882</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.54108128152442</v>
+        <v>21.97786787507886</v>
       </c>
       <c r="N11">
-        <v>18.0744625833973</v>
+        <v>10.77322106564215</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.172804422225886</v>
+        <v>8.133494611065061</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.7003327872747</v>
+        <v>3.539103892050758</v>
       </c>
       <c r="E12">
-        <v>12.49334635304382</v>
+        <v>15.91744698423071</v>
       </c>
       <c r="F12">
-        <v>26.68132371518984</v>
+        <v>28.55286648086935</v>
       </c>
       <c r="G12">
-        <v>33.66769986173628</v>
+        <v>40.91104419606829</v>
       </c>
       <c r="H12">
-        <v>14.65404629689216</v>
+        <v>11.25232935028179</v>
       </c>
       <c r="I12">
-        <v>19.47621287462731</v>
+        <v>11.81589606508521</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.59628593794214</v>
+        <v>21.80692508965086</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.61824507872954</v>
+        <v>22.26693242442736</v>
       </c>
       <c r="N12">
-        <v>18.05757025728943</v>
+        <v>10.70398609062353</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.166506856578892</v>
+        <v>8.114433658157395</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.69992269597304</v>
+        <v>3.538463723362784</v>
       </c>
       <c r="E13">
-        <v>12.48284478713084</v>
+        <v>15.8687531136663</v>
       </c>
       <c r="F13">
-        <v>26.66922035613067</v>
+        <v>28.48595990551561</v>
       </c>
       <c r="G13">
-        <v>33.64397033442334</v>
+        <v>40.80567666537448</v>
       </c>
       <c r="H13">
-        <v>14.65379146923776</v>
+        <v>11.23714921816942</v>
       </c>
       <c r="I13">
-        <v>19.48069473292438</v>
+        <v>11.82770824425113</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.57326244133059</v>
+        <v>21.74898062564159</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.60163459861576</v>
+        <v>22.20488980232356</v>
       </c>
       <c r="N13">
-        <v>18.06119668736984</v>
+        <v>10.718892397466</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.145944049976324</v>
+        <v>8.051955477524526</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.698584133193432</v>
+        <v>3.536371577857653</v>
       </c>
       <c r="E14">
-        <v>12.44863626288099</v>
+        <v>15.70944432454271</v>
       </c>
       <c r="F14">
-        <v>26.62992244222727</v>
+        <v>28.26769076799631</v>
       </c>
       <c r="G14">
-        <v>33.56677805743289</v>
+        <v>40.46180185684913</v>
       </c>
       <c r="H14">
-        <v>14.65304535831954</v>
+        <v>11.18788501634536</v>
       </c>
       <c r="I14">
-        <v>19.49539262238724</v>
+        <v>11.86648828668267</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.49792864698054</v>
+        <v>21.55919803417738</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.54743314500683</v>
+        <v>22.00174542199204</v>
       </c>
       <c r="N14">
-        <v>18.07306759684598</v>
+        <v>10.76752286406031</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.133329961491093</v>
+        <v>8.013442755461462</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.697763336065113</v>
+        <v>3.535086719237897</v>
       </c>
       <c r="E15">
-        <v>12.42771364062008</v>
+        <v>15.61147029764492</v>
       </c>
       <c r="F15">
-        <v>26.60598563571313</v>
+        <v>28.13393965595622</v>
       </c>
       <c r="G15">
-        <v>33.51964719305111</v>
+        <v>40.25097750441456</v>
       </c>
       <c r="H15">
-        <v>14.65265361037246</v>
+        <v>11.15789419539233</v>
       </c>
       <c r="I15">
-        <v>19.50445818961295</v>
+        <v>11.89043827867095</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.45159458029741</v>
+        <v>21.44232393033796</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.5142106844249</v>
+        <v>21.87668841258113</v>
       </c>
       <c r="N15">
-        <v>18.08037296187536</v>
+        <v>10.79732517071737</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.060776579474256</v>
+        <v>7.789017325932314</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.693046352834157</v>
+        <v>3.527673700786433</v>
       </c>
       <c r="E16">
-        <v>12.30832569449133</v>
+        <v>15.04388739000265</v>
       </c>
       <c r="F16">
-        <v>26.47090338441557</v>
+        <v>27.36665708224743</v>
       </c>
       <c r="G16">
-        <v>33.25196123212417</v>
+        <v>39.03990662487492</v>
       </c>
       <c r="H16">
-        <v>14.65140891513617</v>
+        <v>10.98883727686847</v>
       </c>
       <c r="I16">
-        <v>19.55737015926431</v>
+        <v>12.03060727077499</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.18322655162271</v>
+        <v>20.76287951971733</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.32353837635912</v>
+        <v>21.15033934999303</v>
       </c>
       <c r="N16">
-        <v>18.12276056207021</v>
+        <v>10.96838020439798</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.016051895101667</v>
+        <v>7.648017500532009</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.690141067245117</v>
+        <v>3.523083105643583</v>
       </c>
       <c r="E17">
-        <v>12.23557893628589</v>
+        <v>14.69010327349292</v>
       </c>
       <c r="F17">
-        <v>26.38993320661647</v>
+        <v>26.89528370703274</v>
       </c>
       <c r="G17">
-        <v>33.08997194590903</v>
+        <v>38.29437991396716</v>
       </c>
       <c r="H17">
-        <v>14.65153766735737</v>
+        <v>10.88760519033474</v>
       </c>
       <c r="I17">
-        <v>19.59068742879722</v>
+        <v>12.11911611878484</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.01612585361525</v>
+        <v>20.337336968892</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.20637332863823</v>
+        <v>20.69597334012877</v>
       </c>
       <c r="N17">
-        <v>18.14923220211351</v>
+        <v>11.07360439139681</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.990257448752109</v>
+        <v>7.565698255193115</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.688465900341565</v>
+        <v>3.520427628306687</v>
       </c>
       <c r="E18">
-        <v>12.19393341905016</v>
+        <v>14.48451712689106</v>
       </c>
       <c r="F18">
-        <v>26.34407197403657</v>
+        <v>26.62394255571856</v>
       </c>
       <c r="G18">
-        <v>32.9976515989826</v>
+        <v>37.86465038568858</v>
       </c>
       <c r="H18">
-        <v>14.65193952598196</v>
+        <v>10.8302798228494</v>
       </c>
       <c r="I18">
-        <v>19.61016580618295</v>
+        <v>12.17091741955848</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.91913869255951</v>
+        <v>20.0893385651491</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.13893726661283</v>
+        <v>20.43136334859308</v>
       </c>
       <c r="N18">
-        <v>18.16463049000443</v>
+        <v>11.13425004362263</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.981512760470913</v>
+        <v>7.537616992979503</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.687898021613441</v>
+        <v>3.519526006359222</v>
       </c>
       <c r="E19">
-        <v>12.17986813292297</v>
+        <v>14.41454468601333</v>
       </c>
       <c r="F19">
-        <v>26.32866741387909</v>
+        <v>26.53203649230747</v>
       </c>
       <c r="G19">
-        <v>32.96654288559467</v>
+        <v>37.71899617017664</v>
       </c>
       <c r="H19">
-        <v>14.65213187337684</v>
+        <v>10.81102417834834</v>
       </c>
       <c r="I19">
-        <v>19.61681498437709</v>
+        <v>12.18860695341075</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.88615324468033</v>
+        <v>20.00481171299987</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.11609914554361</v>
+        <v>20.34120499371599</v>
       </c>
       <c r="N19">
-        <v>18.16987375391352</v>
+        <v>11.15480646758687</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.020820368324869</v>
+        <v>7.663153454331368</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.690450769501004</v>
+        <v>3.523573360054263</v>
       </c>
       <c r="E20">
-        <v>12.24330295470014</v>
+        <v>14.72798045508362</v>
       </c>
       <c r="F20">
-        <v>26.39847935693401</v>
+        <v>26.945485644603</v>
       </c>
       <c r="G20">
-        <v>33.10712858413204</v>
+        <v>38.37383866184856</v>
       </c>
       <c r="H20">
-        <v>14.65149003147336</v>
+        <v>10.8982880778623</v>
       </c>
       <c r="I20">
-        <v>19.58710813114278</v>
+        <v>12.10960103555497</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.03400531380237</v>
+        <v>20.38297110358181</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.21885106903227</v>
+        <v>20.74467886840064</v>
       </c>
       <c r="N20">
-        <v>18.14639640738332</v>
+        <v>11.06239071007694</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.15198780644067</v>
+        <v>8.070357481237151</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.698977487454877</v>
+        <v>3.536986795173282</v>
       </c>
       <c r="E21">
-        <v>12.45867774011675</v>
+        <v>15.75631875781444</v>
       </c>
       <c r="F21">
-        <v>26.64143728014407</v>
+        <v>28.33181321852686</v>
       </c>
       <c r="G21">
-        <v>33.58941988688441</v>
+        <v>40.56284603362431</v>
       </c>
       <c r="H21">
-        <v>14.65325090757015</v>
+        <v>11.20231650417914</v>
       </c>
       <c r="I21">
-        <v>19.49106243250752</v>
+        <v>11.85505657351122</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.52009574376236</v>
+        <v>21.61507220847108</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.56335825132186</v>
+        <v>22.06154386242576</v>
       </c>
       <c r="N21">
-        <v>18.06957372098756</v>
+        <v>10.75323595273796</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.236897498319681</v>
+        <v>8.325613173435594</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.704510755520104</v>
+        <v>3.545604733629158</v>
       </c>
       <c r="E22">
-        <v>12.60086934951589</v>
+        <v>16.41069404301567</v>
       </c>
       <c r="F22">
-        <v>26.80627083633627</v>
+        <v>29.2354601901954</v>
       </c>
       <c r="G22">
-        <v>33.91150145383693</v>
+        <v>41.98498198087399</v>
       </c>
       <c r="H22">
-        <v>14.65732264757355</v>
+        <v>11.40926539009946</v>
       </c>
       <c r="I22">
-        <v>19.43109677292906</v>
+        <v>11.69738343350081</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.88588548093828</v>
+        <v>22.3921820925266</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.78757404981585</v>
+        <v>22.8940816682817</v>
       </c>
       <c r="N22">
-        <v>18.02089261053564</v>
+        <v>10.55189407984922</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.191663293049769</v>
+        <v>8.190373515035224</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.701561285428933</v>
+        <v>3.541019399594663</v>
       </c>
       <c r="E23">
-        <v>12.5248633402296</v>
+        <v>16.06301008198333</v>
       </c>
       <c r="F23">
-        <v>26.71775689148409</v>
+        <v>28.7533972954484</v>
       </c>
       <c r="G23">
-        <v>33.73900587015875</v>
+        <v>41.22673677048429</v>
       </c>
       <c r="H23">
-        <v>14.65488219744074</v>
+        <v>11.29804618380941</v>
       </c>
       <c r="I23">
-        <v>19.46284487454895</v>
+        <v>11.7807031221</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.68003620617124</v>
+        <v>21.9799625861517</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.66801690412673</v>
+        <v>22.45226043924814</v>
       </c>
       <c r="N23">
-        <v>18.04673535961127</v>
+        <v>10.65930912899103</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.018664793674419</v>
+        <v>7.656314403317158</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.690310768249845</v>
+        <v>3.523351766590217</v>
       </c>
       <c r="E24">
-        <v>12.2398103693585</v>
+        <v>14.71086301605679</v>
       </c>
       <c r="F24">
-        <v>26.39461349113525</v>
+        <v>26.92279040857712</v>
       </c>
       <c r="G24">
-        <v>33.09936953866385</v>
+        <v>38.33791883336633</v>
       </c>
       <c r="H24">
-        <v>14.65151054642266</v>
+        <v>10.89345562356156</v>
       </c>
       <c r="I24">
-        <v>19.5887253228345</v>
+        <v>12.11389995803564</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.02592486424899</v>
+        <v>20.36235034787601</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.21321011427832</v>
+        <v>20.72266966566028</v>
       </c>
       <c r="N24">
-        <v>18.14767791124329</v>
+        <v>11.06745994128868</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.829508202946831</v>
+        <v>7.033649584371693</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.678019217011641</v>
+        <v>3.503728001627372</v>
       </c>
       <c r="E25">
-        <v>11.94003405645526</v>
+        <v>13.35197741681498</v>
       </c>
       <c r="F25">
-        <v>26.07336272300815</v>
+        <v>24.94053846825288</v>
       </c>
       <c r="G25">
-        <v>32.44236694036397</v>
+        <v>35.18760578988984</v>
       </c>
       <c r="H25">
-        <v>14.66040166636359</v>
+        <v>10.49135895345671</v>
       </c>
       <c r="I25">
-        <v>19.73655832262305</v>
+        <v>12.50716620007591</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.30349980859693</v>
+        <v>18.4934255935863</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.72121757378609</v>
+        <v>18.73150825328621</v>
       </c>
       <c r="N25">
-        <v>18.26316164651983</v>
+        <v>11.51262729593767</v>
       </c>
       <c r="O25">
         <v>0</v>
